--- a/模板/角色设定模板.xlsx
+++ b/模板/角色设定模板.xlsx
@@ -15,6 +15,53 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>xxx角色设定</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>别称</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>职业</t>
+  </si>
+  <si>
+    <t>相貌</t>
+  </si>
+  <si>
+    <t>头发</t>
+  </si>
+  <si>
+    <t>体格</t>
+  </si>
+  <si>
+    <t>服装</t>
+  </si>
+  <si>
+    <t>性格</t>
+  </si>
+  <si>
+    <t>特技</t>
+  </si>
+  <si>
+    <t>弱点</t>
+  </si>
+  <si>
+    <t>口吻</t>
+  </si>
+  <si>
+    <t>剧本上的设定</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
@@ -39,10 +86,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -198,6 +244,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -294,12 +346,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -383,12 +429,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,46 +555,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,52 +609,52 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,12 +700,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1011,17 +1078,507 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection activeCell="C21" sqref="A2:P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:16">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:P3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:P4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:P5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:P6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:P7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:P8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:P9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:P16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:P17"/>
+    <mergeCell ref="A10:B12"/>
+    <mergeCell ref="A13:B15"/>
+    <mergeCell ref="A18:B20"/>
+    <mergeCell ref="A21:B25"/>
+    <mergeCell ref="C10:P12"/>
+    <mergeCell ref="C13:P15"/>
+    <mergeCell ref="C18:P20"/>
+    <mergeCell ref="C21:P25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/模板/角色设定模板.xlsx
+++ b/模板/角色设定模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27540" windowHeight="14415" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,103 +244,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,16 +582,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,10 +603,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,28 +627,28 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -645,22 +657,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,19 +675,19 @@
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -690,13 +696,19 @@
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -704,13 +716,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1081,7 +1093,7 @@
   <dimension ref="A2:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="A2:P25"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1249,7 +1261,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" ht="13.5" spans="1:16">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1269,7 +1281,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" ht="13.5" spans="1:16">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1287,7 +1299,7 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" ht="13.5" spans="1:16">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1305,7 +1317,7 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" ht="13.5" spans="1:16">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1325,7 +1337,7 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" ht="13.5" spans="1:16">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1343,7 +1355,7 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" ht="13.5" spans="1:16">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1401,7 +1413,7 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" ht="13.5" spans="1:16">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -1421,7 +1433,7 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" ht="13.5" spans="1:16">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1439,7 +1451,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" ht="13.5" spans="1:16">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1457,7 +1469,7 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" ht="13.5" spans="1:16">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
@@ -1477,7 +1489,7 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" ht="13.5" spans="1:16">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1495,7 +1507,7 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" ht="13.5" spans="1:16">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1513,7 +1525,7 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" ht="13.5" spans="1:16">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1531,7 +1543,7 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" ht="13.5" spans="1:16">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
